--- a/data_by_stat/ALL_STATS.xlsx
+++ b/data_by_stat/ALL_STATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bama365-my.sharepoint.com/personal/htruong_crimson_ua_edu/Documents/Self-learning Programming/magnum_opus/data_by_stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_54C9C3E21782004EA6565E943CDD9E1F7E6334D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_54C9C3E21782004EA6565E943CDD9E1F7E6334D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970258C6-D2C5-4448-B2D1-6CD94DD58CF9}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="0" windowWidth="19620" windowHeight="11430" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +201,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,20 +259,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,9 +589,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL17" sqref="AL17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -696,7 +787,7 @@
       <c r="I2">
         <v>6153363.6363636367</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>1.9090909090909089</v>
       </c>
       <c r="S2">
@@ -723,13 +814,13 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>36363.63636363636</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="5">
         <v>233235.45454545459</v>
       </c>
       <c r="AD2">
@@ -750,19 +841,19 @@
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="5">
         <v>235090.90909090909</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="5">
         <v>265272.72727272729</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="9">
         <v>1.1175387670785371</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="11">
         <v>53.482086006215802</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="9">
         <v>0.75395196999475078</v>
       </c>
     </row>
@@ -776,7 +867,7 @@
       <c r="C3">
         <v>20.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1.5</v>
       </c>
       <c r="E3">
@@ -794,13 +885,13 @@
       <c r="I3">
         <v>66133375</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>1.25</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>7</v>
       </c>
       <c r="U3">
@@ -821,13 +912,13 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>1010000</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="8">
         <v>1022715</v>
       </c>
       <c r="AD3">
@@ -836,7 +927,7 @@
       <c r="AE3">
         <v>44.5</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>0.5</v>
       </c>
       <c r="AG3">
@@ -848,19 +939,19 @@
       <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="6">
         <v>2605115</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="5">
         <v>19000</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="10">
         <v>1.22037927461018</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="12">
         <v>52.416180959960172</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="9">
         <v>0.49478284873021711</v>
       </c>
     </row>
@@ -895,7 +986,7 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>2.08</v>
       </c>
       <c r="T4">
@@ -916,16 +1007,16 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>0.4</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="4">
         <v>5840</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="5">
         <v>776280</v>
       </c>
       <c r="AD4">
@@ -946,19 +1037,19 @@
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="5">
         <v>229360</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="5">
         <v>184740</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="9">
         <v>1.168447406908756</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="9">
         <v>51.446653517275188</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="9">
         <v>0.79126733914002956</v>
       </c>
     </row>
@@ -1023,7 +1114,7 @@
       <c r="AB5">
         <v>2000</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="5">
         <v>62000</v>
       </c>
       <c r="AD5">
@@ -1038,25 +1129,25 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="2">
         <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="5">
         <v>301000</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="5">
         <v>77000</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="12">
         <v>1.181739130434782</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="9">
         <v>52.38532110091743</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="9">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1073,7 +1164,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6">
@@ -1091,16 +1182,16 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>1</v>
       </c>
       <c r="W6">
@@ -1118,10 +1209,10 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="2">
         <v>10000</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="5">
         <v>235000</v>
       </c>
       <c r="AD6">
@@ -1142,19 +1233,19 @@
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="5">
         <v>5000</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="7">
         <v>611000</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="11">
         <v>1.2009589041095889</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="9">
         <v>50.368421052631582</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="9">
         <v>0.72972972972972971</v>
       </c>
     </row>
@@ -1171,13 +1262,13 @@
       <c r="D7">
         <v>0.3529411764705882</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>10.41176470588235</v>
       </c>
       <c r="F7">
         <v>6.6470588235294121</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>45.294117647058833</v>
       </c>
       <c r="H7">
@@ -1210,7 +1301,7 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="4">
         <v>5.8823529411764698E-2</v>
       </c>
       <c r="AA7">
@@ -1219,7 +1310,7 @@
       <c r="AB7">
         <v>2235.294117647059</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="5">
         <v>500294.1176470588</v>
       </c>
       <c r="AD7">
@@ -1240,19 +1331,19 @@
       <c r="AI7">
         <v>0</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="5">
         <v>83529.411764705888</v>
       </c>
-      <c r="AK7">
-        <v>336764.70588235289</v>
-      </c>
-      <c r="AL7">
+      <c r="AK7" s="8">
+        <v>336764.70588235301</v>
+      </c>
+      <c r="AL7" s="9">
         <v>1.1409860477138469</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="9">
         <v>51.826532638498144</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="11">
         <v>1.018249318579721</v>
       </c>
     </row>
@@ -1260,22 +1351,22 @@
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>368</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>43</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>97</v>
       </c>
       <c r="H8">
@@ -1317,13 +1408,13 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="5">
         <v>2000</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="3">
         <v>22</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="4">
         <v>144</v>
       </c>
       <c r="AF8">
@@ -1335,22 +1426,22 @@
       <c r="AH8">
         <v>0</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="2">
         <v>1</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="7">
         <v>465000</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="5">
         <v>96000</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="9">
         <v>1.1104166666666671</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="9">
         <v>51.105978260869563</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="10">
         <v>1.023255813953488</v>
       </c>
     </row>
@@ -1361,7 +1452,7 @@
       <c r="B9">
         <v>217</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>51.5</v>
       </c>
       <c r="D9">
@@ -1370,7 +1461,7 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>11.5</v>
       </c>
       <c r="G9">
@@ -1382,37 +1473,37 @@
       <c r="I9">
         <v>3193000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>11</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>19</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.5</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>35000</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>12514000</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>11.5</v>
       </c>
       <c r="S9">
         <v>2</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>31.5</v>
       </c>
       <c r="U9">
@@ -1433,13 +1524,13 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="2">
         <v>1965307500</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="7">
         <v>5170000</v>
       </c>
       <c r="AD9">
@@ -1448,7 +1539,7 @@
       <c r="AE9">
         <v>107</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="2">
         <v>0.5</v>
       </c>
       <c r="AG9">
@@ -1460,19 +1551,19 @@
       <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="5">
         <v>19000</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="5">
         <v>34000</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="9">
         <v>1.118978723404255</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="10">
         <v>54.279700868656519</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="9">
         <v>0.50360942249240126</v>
       </c>
     </row>
@@ -1480,22 +1571,22 @@
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>317.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>56.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>39.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>9.5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>902</v>
       </c>
       <c r="H10">
@@ -1507,7 +1598,7 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>2.5</v>
       </c>
       <c r="T10">
@@ -1528,22 +1619,22 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="2">
         <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="3">
         <v>7500</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="6">
         <v>6050000</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="4">
         <v>11</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="2">
         <v>214</v>
       </c>
       <c r="AF10">
@@ -1558,19 +1649,19 @@
       <c r="AI10">
         <v>0</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="5">
         <v>10000</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="6">
         <v>958000</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="9">
         <v>1.0911124553519991</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="9">
         <v>52.015474784955302</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="12">
         <v>0.9864438839848676</v>
       </c>
     </row>
@@ -1578,7 +1669,7 @@
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>788.33333333333337</v>
       </c>
       <c r="C11">
@@ -1590,7 +1681,7 @@
       <c r="E11">
         <v>3.333333333333333</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>7.333333333333333</v>
       </c>
       <c r="G11">
@@ -1632,19 +1723,19 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="2">
         <v>10000</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
         <v>37.666666666666657</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="3">
         <v>193.6666666666666</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="AG11">
@@ -1656,19 +1747,19 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="8">
         <v>342666.66666666669</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="5">
         <v>100166.6666666667</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="9">
         <v>1.1052530704912611</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="9">
         <v>49.31925628359452</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="9">
         <v>0.81142857142857139</v>
       </c>
     </row>
@@ -7957,9 +8048,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
